--- a/src/test/resources/AccountData.xlsx
+++ b/src/test/resources/AccountData.xlsx
@@ -27,90 +27,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>UEN</t>
+    <t>registrationNumber</t>
   </si>
   <si>
     <t>GSTNumber</t>
   </si>
   <si>
-    <t>OrgType</t>
+    <t>organizationType</t>
   </si>
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>StreetName</t>
-  </si>
-  <si>
-    <t>PostalCode</t>
+    <t>Street Name</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
   </si>
   <si>
     <t>Website</t>
   </si>
   <si>
+    <t>RestaurantName</t>
+  </si>
+  <si>
+    <t>ShopperStatement</t>
+  </si>
+  <si>
     <t>OwnerEmail</t>
   </si>
   <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>SalesManager</t>
-  </si>
-  <si>
-    <t>Test Account</t>
-  </si>
-  <si>
-    <t>GST123456</t>
-  </si>
-  <si>
-    <t>Listed Public Company</t>
-  </si>
-  <si>
-    <t>Downtown Core</t>
-  </si>
-  <si>
-    <t>123 Main St</t>
-  </si>
-  <si>
-    <t>https://qa.admin.dinetap.com</t>
-  </si>
-  <si>
-    <t>senelqa@gmail.com</t>
-  </si>
-  <si>
-    <t>6512 4544</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>QA Company</t>
-  </si>
-  <si>
-    <t>GST998877</t>
-  </si>
-  <si>
-    <t>Private Limited</t>
-  </si>
-  <si>
-    <t>Jurong East</t>
-  </si>
-  <si>
-    <t>Block 5 Ave</t>
-  </si>
-  <si>
-    <t>https://qa2.dinetap.com</t>
-  </si>
-  <si>
-    <t>test2@gmail.com</t>
-  </si>
-  <si>
-    <t>6123 4567</t>
+    <t>RestaurantPhoneNumber</t>
+  </si>
+  <si>
+    <t>PointofContact Name</t>
+  </si>
+  <si>
+    <t>PointofContactPhoneNumber</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>Burgerplace</t>
+  </si>
+  <si>
+    <t>DDD112DDD</t>
+  </si>
+  <si>
+    <t>Governmental Organization</t>
+  </si>
+  <si>
+    <t>Chinatown</t>
+  </si>
+  <si>
+    <t>10 Street name newton</t>
+  </si>
+  <si>
+    <t>https://qa.admin.dinetap.com/</t>
+  </si>
+  <si>
+    <t>testing 1</t>
+  </si>
+  <si>
+    <t>BURGERHUT84</t>
+  </si>
+  <si>
+    <t>jocn@gmail.com</t>
+  </si>
+  <si>
+    <t>6512 4444</t>
+  </si>
+  <si>
+    <t>senel</t>
+  </si>
+  <si>
+    <t>6512 1111</t>
+  </si>
+  <si>
+    <t>Sales Person One</t>
+  </si>
+  <si>
+    <t>DDD112222</t>
+  </si>
+  <si>
+    <t>Orchard Road</t>
+  </si>
+  <si>
+    <t>legal street</t>
+  </si>
+  <si>
+    <t>testing 2</t>
+  </si>
+  <si>
+    <t>BURGERHUT85</t>
+  </si>
+  <si>
+    <t>pinithi</t>
+  </si>
+  <si>
+    <t>6512 2222</t>
   </si>
   <si>
     <t>Sanjana</t>
@@ -126,16 +147,8 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+  <fonts count="20">
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -607,133 +620,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -741,14 +754,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1283,17 +1296,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="19.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="14.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="20.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="20.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="12.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="18.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
@@ -1301,10 +1314,10 @@
     <col min="8" max="8" width="33.8571428571429" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
     <col min="10" max="10" width="24.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="13.5714285714286" customWidth="1"/>
-    <col min="12" max="12" width="20.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="16.8571428571429" customWidth="1"/>
-    <col min="14" max="14" width="18.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="25.8571428571429" customWidth="1"/>
+    <col min="13" max="13" width="21.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="30.1428571428571" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="26.8571428571429" customWidth="1"/>
     <col min="17" max="17" width="22.8571428571429" customWidth="1"/>
@@ -1312,7 +1325,7 @@
     <col min="19" max="19" width="14.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,87 +1359,136 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="30" spans="1:15">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2">
-        <v>188601</v>
+      <c r="B2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1">
+        <v>546080</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>546081</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" ht="30" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2">
-        <v>9988776655</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2">
-        <v>567890</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="https://qa.admin.dinetap.com" tooltip="https://qa.admin.dinetap.com"/>
-    <hyperlink ref="I2" r:id="rId2" display="senelqa@gmail.com" tooltip="mailto:senelqa@gmail.com"/>
-    <hyperlink ref="H3" r:id="rId3" display="https://qa2.dinetap.com" tooltip="https://qa2.dinetap.com"/>
-    <hyperlink ref="I3" r:id="rId4" display="test2@gmail.com" tooltip="mailto:test2@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="https://qa.admin.dinetap.com/"/>
+    <hyperlink ref="K2" r:id="rId2" display="jocn@gmail.com" tooltip="mailto:jocn@gmail.com"/>
+    <hyperlink ref="H3" r:id="rId1" display="https://qa.admin.dinetap.com/"/>
+    <hyperlink ref="K3" r:id="rId2" display="jocn@gmail.com" tooltip="mailto:jocn@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
